--- a/Local Train Ticketing application/RTM/RTM_Group7.xlsx
+++ b/Local Train Ticketing application/RTM/RTM_Group7.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Local Train Ticketing application\RTM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssingana\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AE50BA-C732-49B1-850E-1D4EA063B875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D45CD02-FA2A-45BA-A7E3-8B7E69FEEC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
   <si>
     <t>Req</t>
   </si>
@@ -138,9 +138,6 @@
     <t>LTT_16</t>
   </si>
   <si>
-    <t>Book_ticket</t>
-  </si>
-  <si>
     <t>IT_03</t>
   </si>
   <si>
@@ -210,19 +207,10 @@
     <t>7.1.17</t>
   </si>
   <si>
-    <t>7.1.18</t>
-  </si>
-  <si>
     <t>LTT_13</t>
   </si>
   <si>
     <t>LTT_14</t>
-  </si>
-  <si>
-    <t>LTT_18</t>
-  </si>
-  <si>
-    <t>Test_case_2.1</t>
   </si>
   <si>
     <t>Test_case_2.2</t>
@@ -632,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -669,7 +657,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -683,7 +671,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -697,13 +685,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
@@ -711,13 +699,13 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -728,13 +716,13 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -742,13 +730,13 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -756,13 +744,13 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -770,13 +758,13 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -784,13 +772,13 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -798,13 +786,13 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -812,13 +800,13 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -826,41 +814,41 @@
         <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
         <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -868,13 +856,13 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -882,41 +870,27 @@
         <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
         <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -926,12 +900,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c3d86725-8b3e-4d29-b1bb-4693ad18f08d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="18423733-67d9-4f0c-86d9-ba9fd8af3664">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1152,20 +1128,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c3d86725-8b3e-4d29-b1bb-4693ad18f08d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="18423733-67d9-4f0c-86d9-ba9fd8af3664">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6DD5ECF-BDC1-47FC-86F7-8061971B0019}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE18EF17-2054-47D8-BF86-187761025201}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c3d86725-8b3e-4d29-b1bb-4693ad18f08d"/>
+    <ds:schemaRef ds:uri="18423733-67d9-4f0c-86d9-ba9fd8af3664"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1190,12 +1167,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE18EF17-2054-47D8-BF86-187761025201}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6DD5ECF-BDC1-47FC-86F7-8061971B0019}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c3d86725-8b3e-4d29-b1bb-4693ad18f08d"/>
-    <ds:schemaRef ds:uri="18423733-67d9-4f0c-86d9-ba9fd8af3664"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Local Train Ticketing application/RTM/RTM_Group7.xlsx
+++ b/Local Train Ticketing application/RTM/RTM_Group7.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssingana\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D45CD02-FA2A-45BA-A7E3-8B7E69FEEC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
   <si>
     <t>Req</t>
   </si>
@@ -153,9 +147,6 @@
     <t>min_bal_report</t>
   </si>
   <si>
-    <t>LTT_17</t>
-  </si>
-  <si>
     <t>7.1.1</t>
   </si>
   <si>
@@ -204,9 +195,6 @@
     <t>7.1.16</t>
   </si>
   <si>
-    <t>7.1.17</t>
-  </si>
-  <si>
     <t>LTT_13</t>
   </si>
   <si>
@@ -247,13 +235,22 @@
   </si>
   <si>
     <t>IT_05</t>
+  </si>
+  <si>
+    <t>Sunny/Rainy Test case</t>
+  </si>
+  <si>
+    <t>Sunny</t>
+  </si>
+  <si>
+    <t>Rainy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,7 +363,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -418,7 +415,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -612,30 +609,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="30.1796875" customWidth="1"/>
+    <col min="5" max="5" width="30.21875" customWidth="1"/>
+    <col min="6" max="6" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,13 +649,16 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -666,12 +667,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -680,85 +681,97 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="13.5" customHeight="1">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" hidden="1">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="F7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -767,68 +780,80 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="F10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+      <c r="F11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
         <v>31</v>
@@ -837,60 +862,69 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
         <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+      <c r="F15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
         <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
         <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
         <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="F18" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -900,14 +934,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c3d86725-8b3e-4d29-b1bb-4693ad18f08d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="18423733-67d9-4f0c-86d9-ba9fd8af3664">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1128,21 +1160,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c3d86725-8b3e-4d29-b1bb-4693ad18f08d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="18423733-67d9-4f0c-86d9-ba9fd8af3664">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE18EF17-2054-47D8-BF86-187761025201}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6DD5ECF-BDC1-47FC-86F7-8061971B0019}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c3d86725-8b3e-4d29-b1bb-4693ad18f08d"/>
-    <ds:schemaRef ds:uri="18423733-67d9-4f0c-86d9-ba9fd8af3664"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1167,9 +1198,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6DD5ECF-BDC1-47FC-86F7-8061971B0019}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE18EF17-2054-47D8-BF86-187761025201}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c3d86725-8b3e-4d29-b1bb-4693ad18f08d"/>
+    <ds:schemaRef ds:uri="18423733-67d9-4f0c-86d9-ba9fd8af3664"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Local Train Ticketing application/RTM/RTM_Group7.xlsx
+++ b/Local Train Ticketing application/RTM/RTM_Group7.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
   <si>
     <t>Req</t>
   </si>
@@ -235,15 +235,6 @@
   </si>
   <si>
     <t>IT_05</t>
-  </si>
-  <si>
-    <t>Sunny/Rainy Test case</t>
-  </si>
-  <si>
-    <t>Sunny</t>
-  </si>
-  <si>
-    <t>Rainy</t>
   </si>
 </sst>
 </file>
@@ -609,7 +600,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -620,7 +611,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -649,9 +640,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
@@ -694,9 +683,6 @@
       <c r="D4" t="s">
         <v>59</v>
       </c>
-      <c r="F4" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="5" spans="1:6" hidden="1">
       <c r="A5" t="s">
@@ -728,9 +714,6 @@
       <c r="D6" t="s">
         <v>60</v>
       </c>
-      <c r="F6" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
@@ -745,9 +728,6 @@
       <c r="D7" t="s">
         <v>61</v>
       </c>
-      <c r="F7" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
@@ -762,9 +742,6 @@
       <c r="D8" t="s">
         <v>62</v>
       </c>
-      <c r="F8" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
@@ -793,9 +770,6 @@
       <c r="D10" t="s">
         <v>63</v>
       </c>
-      <c r="F10" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
@@ -810,9 +784,6 @@
       <c r="D11" t="s">
         <v>64</v>
       </c>
-      <c r="F11" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
@@ -827,9 +798,6 @@
       <c r="D12" t="s">
         <v>65</v>
       </c>
-      <c r="F12" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
@@ -844,9 +812,6 @@
       <c r="D13" t="s">
         <v>66</v>
       </c>
-      <c r="F13" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
@@ -875,9 +840,6 @@
       <c r="D15" t="s">
         <v>67</v>
       </c>
-      <c r="F15" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
@@ -892,11 +854,8 @@
       <c r="D16" t="s">
         <v>68</v>
       </c>
-      <c r="F16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -910,7 +869,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -922,9 +881,6 @@
       </c>
       <c r="D18" t="s">
         <v>58</v>
-      </c>
-      <c r="F18" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -934,36 +890,36 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ad7b9098-a779-457c-aff0-c0a14edc8e5b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E092000DCB123B4CADB3A306A70C54D2" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9714de2ff10917eb782fe6f1b4cf2ed3">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="18423733-67d9-4f0c-86d9-ba9fd8af3664" xmlns:ns3="c3d86725-8b3e-4d29-b1bb-4693ad18f08d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d115b678c57400066c4fe93e52ffce69" ns2:_="" ns3:_="">
-    <xsd:import namespace="18423733-67d9-4f0c-86d9-ba9fd8af3664"/>
-    <xsd:import namespace="c3d86725-8b3e-4d29-b1bb-4693ad18f08d"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004FF4DFB03152484682195B4E7E062471" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="56990d23bf121ef8baf56fcd53ce6797">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="42dd97dd-44c3-46c8-9626-3c38d3fffb94" xmlns:ns3="ad7b9098-a779-457c-aff0-c0a14edc8e5b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaa513550f59551fb7959093e32f308" ns2:_="" ns3:_="">
+    <xsd:import namespace="42dd97dd-44c3-46c8-9626-3c38d3fffb94"/>
+    <xsd:import namespace="ad7b9098-a779-457c-aff0-c0a14edc8e5b"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -971,58 +927,10 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="18423733-67d9-4f0c-86d9-ba9fd8af3664" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="42dd97dd-44c3-46c8-9626-3c38d3fffb94" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="dcc8788f-f679-4de9-afe2-1653e9c0f3dd" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="19" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c3d86725-8b3e-4d29-b1bb-4693ad18f08d" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -1041,23 +949,60 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{f1954e71-e3ae-49c4-94fa-0d6686359601}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="c3d86725-8b3e-4d29-b1bb-4693ad18f08d">
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ad7b9098-a779-457c-aff0-c0a14edc8e5b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="13" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="dcc8788f-f679-4de9-afe2-1653e9c0f3dd" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -1160,44 +1105,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c3d86725-8b3e-4d29-b1bb-4693ad18f08d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="18423733-67d9-4f0c-86d9-ba9fd8af3664">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6DD5ECF-BDC1-47FC-86F7-8061971B0019}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{953D46FD-D1FE-4DF8-B4A5-B07751DCDCF0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="18423733-67d9-4f0c-86d9-ba9fd8af3664"/>
-    <ds:schemaRef ds:uri="c3d86725-8b3e-4d29-b1bb-4693ad18f08d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE18EF17-2054-47D8-BF86-187761025201}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1206,4 +1122,16 @@
     <ds:schemaRef ds:uri="18423733-67d9-4f0c-86d9-ba9fd8af3664"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B1A7B99-45D6-4642-AB85-66F1A23595B0}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6DD5ECF-BDC1-47FC-86F7-8061971B0019}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>